--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_20_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_20_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74982.76499636327</v>
+        <v>14391378.03606864</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74982.76499636327</v>
+        <v>14391378.03606864</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24558.2476225782</v>
+        <v>3145435.110753734</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24558.2476225782</v>
+        <v>3145435.110753734</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418697047.472676</v>
+        <v>54962184.84891438</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11516.73397650314</v>
+        <v>1215357.401516923</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22166.57971077043</v>
+        <v>2297905.936432994</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33086.65035722929</v>
+        <v>3433833.830000012</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44415.81937832393</v>
+        <v>4466130.365218627</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55198.09608540027</v>
+        <v>5581044.683029815</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>65980.37279247658</v>
+        <v>6695959.000840998</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77021.58207451258</v>
+        <v>7885226.433246738</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>87907.77066556504</v>
+        <v>9048487.36937792</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99197.36238019566</v>
+        <v>10061208.42824232</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>109980.5747726438</v>
+        <v>11188840.995722</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>120038.2836760297</v>
+        <v>12326759.165467</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130233.7865187981</v>
+        <v>13485690.91096785</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140429.2893615666</v>
+        <v>14644622.6564687</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>151282.8381624474</v>
+        <v>15709259.00218609</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>163921.1337036139</v>
+        <v>16416768.4920529</v>
       </c>
     </row>
   </sheetData>
@@ -27043,7 +27043,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>331</v>
@@ -27055,7 +27055,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>142.0000000072139</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>86.99999999278606</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>130</v>
